--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9794.87760359238</v>
+        <v>-19866.69256603841</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2950632.2279274</v>
+        <v>2864217.465154814</v>
       </c>
     </row>
     <row r="11">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>295.263893285047</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.90947265703085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>170.6199121303067</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>385.5184470006828</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>184.2720901464346</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>89.74032079371332</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,22 +2560,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>111.5422858787866</v>
+        <v>12.86805807859808</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2713,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>105.2062201625535</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>182.941715507137</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>313.6886835655776</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.676415663923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>214.4389870066681</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>380.8846381935532</v>
+        <v>39.99014514596448</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3122,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>93.11323406457223</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
         <v>52.84233230531351</v>
@@ -3190,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>15.36404853797002</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>127.2960718860381</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>196.0265444490556</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>230.1916403883167</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3359,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>93.11323406457203</v>
+        <v>93.11323406457201</v>
       </c>
       <c r="H36" t="n">
         <v>52.84233230531351</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T36" t="n">
         <v>140.4611363452985</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>73.53992412670893</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.1476088529642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>274.8814270509646</v>
       </c>
       <c r="H38" t="n">
-        <v>154.3729836062759</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>223.7397426529421</v>
+        <v>37.60260575031165</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>155.8609439726535</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>171.5578058653738</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>60.54490246387795</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>211.8461665087994</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>141.0299462153872</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>90.90586913785502</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>762.0590793011095</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>335.1583493144096</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>493.6978991635576</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>493.6978991635576</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>493.6978991635576</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>950.4838058662885</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>950.4838058662885</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1271.957808655251</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1587.244713637749</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1587.244713637749</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1587.244713637749</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1587.244713637749</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1181.90744359264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250719</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980091</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809132</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851708</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9119924608267</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9119924608267</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>308.6094817404178</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>765.3953884431487</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>765.3953884431487</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>765.3953884431487</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1222.18129514588</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1388.813716338606</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1764.275375602591</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1437.627243819906</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1232.654104959172</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>303.8948463526241</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>695.080641322875</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1072.572152198911</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1428.000280878674</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1718.599492800575</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1798.56100972851</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1628.425962247645</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1385.086614473545</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1104.902165973849</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>823.1906985818782</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>548.3382947543912</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>305.7743982001963</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.0779611728924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>671.0529392902239</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="C23" t="n">
-        <v>244.152209303524</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="D23" t="n">
-        <v>244.152209303524</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E23" t="n">
-        <v>244.152209303524</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F23" t="n">
-        <v>244.152209303524</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G23" t="n">
-        <v>244.152209303524</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H23" t="n">
-        <v>71.80886371735554</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L23" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M23" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N23" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O23" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P23" t="n">
         <v>1271.957808655251</v>
@@ -6014,25 +6016,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U23" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V23" t="n">
-        <v>1488.110208167586</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="W23" t="n">
-        <v>1488.110208167586</v>
+        <v>865.5604988558694</v>
       </c>
       <c r="X23" t="n">
-        <v>1076.390209335334</v>
+        <v>865.5604988558694</v>
       </c>
       <c r="Y23" t="n">
-        <v>671.0529392902239</v>
+        <v>476.1479261279069</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I24" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J24" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>36.9119924608267</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>36.9119924608267</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M24" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N24" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O24" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P24" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6096,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6105,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.4095343022865</v>
+        <v>784.9145678863947</v>
       </c>
       <c r="C25" t="n">
-        <v>366.4369711812025</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="D25" t="n">
-        <v>203.1201983079732</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="E25" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F25" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
         <v>76.20565529896515</v>
@@ -6175,22 +6177,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U25" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V25" t="n">
-        <v>1245.991803396034</v>
+        <v>1150.4137603944</v>
       </c>
       <c r="W25" t="n">
-        <v>971.139399568547</v>
+        <v>875.5613565669132</v>
       </c>
       <c r="X25" t="n">
-        <v>728.5755030143521</v>
+        <v>784.9145678863947</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.5755030143521</v>
+        <v>784.9145678863947</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1313.082283114669</v>
+        <v>903.0486561146067</v>
       </c>
       <c r="C26" t="n">
-        <v>886.181553127969</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="D26" t="n">
-        <v>462.8889323129692</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
-        <v>950.4838058662885</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N26" t="n">
-        <v>1407.269712569019</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="O26" t="n">
-        <v>1407.269712569019</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P26" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X26" t="n">
-        <v>1732.930647406199</v>
+        <v>1728.234290451247</v>
       </c>
       <c r="Y26" t="n">
-        <v>1732.930647406199</v>
+        <v>1322.897020406137</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J27" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>772.8420314050605</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L27" t="n">
-        <v>932.0278096358747</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M27" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N27" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O27" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1020.32454672534</v>
+        <v>719.2109140204152</v>
       </c>
       <c r="C28" t="n">
-        <v>848.3519836042556</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="D28" t="n">
-        <v>685.0352107310263</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8270048838798</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
@@ -6412,22 +6414,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T28" t="n">
-        <v>1675.464575560472</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U28" t="n">
-        <v>1395.280127060776</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V28" t="n">
-        <v>1395.280127060776</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W28" t="n">
-        <v>1395.280127060776</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="X28" t="n">
-        <v>1210.490515437405</v>
+        <v>909.3768827324808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.490515437405</v>
+        <v>909.3768827324808</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>463.8127224475267</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="C29" t="n">
-        <v>36.91199246082674</v>
+        <v>1055.976689524189</v>
       </c>
       <c r="D29" t="n">
-        <v>36.91199246082674</v>
+        <v>1055.976689524189</v>
       </c>
       <c r="E29" t="n">
-        <v>36.91199246082674</v>
+        <v>1055.976689524189</v>
       </c>
       <c r="F29" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="L29" t="n">
-        <v>36.91199246082674</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M29" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N29" t="n">
-        <v>950.4838058662885</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O29" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6491,22 +6493,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1520.30675795911</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U29" t="n">
-        <v>1520.30675795911</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V29" t="n">
-        <v>1520.30675795911</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W29" t="n">
-        <v>1520.30675795911</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="X29" t="n">
-        <v>1108.586759126858</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="Y29" t="n">
-        <v>883.6610867390567</v>
+        <v>1482.877419510889</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C30" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J30" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M30" t="n">
-        <v>1678.967201848611</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N30" t="n">
-        <v>1845.599623041337</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O30" t="n">
-        <v>1845.599623041337</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P30" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
         <v>1845.599623041337</v>
@@ -6570,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6579,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C31" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D31" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E31" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F31" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P31" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
@@ -6649,22 +6651,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U31" t="n">
         <v>1151.940779286676</v>
       </c>
       <c r="V31" t="n">
-        <v>1151.940779286676</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W31" t="n">
-        <v>935.3357419062033</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X31" t="n">
-        <v>935.3357419062033</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.9929735959454</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.91199246082674</v>
+        <v>792.9698630583205</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>792.9698630583205</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L32" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M32" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N32" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O32" t="n">
-        <v>815.1719019525203</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P32" t="n">
         <v>1271.957808655251</v>
@@ -6734,16 +6736,16 @@
         <v>1587.244713637749</v>
       </c>
       <c r="V32" t="n">
-        <v>1229.755298763999</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="W32" t="n">
-        <v>833.3639490643454</v>
+        <v>833.3639490643452</v>
       </c>
       <c r="X32" t="n">
-        <v>421.6439502320927</v>
+        <v>833.3639490643452</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.91199246082674</v>
+        <v>792.9698630583205</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J33" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L33" t="n">
-        <v>772.8420314050605</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N33" t="n">
+        <v>772.8420314050604</v>
+      </c>
+      <c r="O33" t="n">
+        <v>850.0084995511719</v>
+      </c>
+      <c r="P33" t="n">
         <v>1306.794406253903</v>
       </c>
-      <c r="O33" t="n">
-        <v>1763.580312956634</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1763.580312956634</v>
-      </c>
       <c r="Q33" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.32454672534</v>
+        <v>872.5270147995548</v>
       </c>
       <c r="C34" t="n">
-        <v>848.3519836042556</v>
+        <v>700.5544516784707</v>
       </c>
       <c r="D34" t="n">
-        <v>685.0352107310263</v>
+        <v>700.5544516784707</v>
       </c>
       <c r="E34" t="n">
-        <v>518.8270048838798</v>
+        <v>534.3462458313243</v>
       </c>
       <c r="F34" t="n">
-        <v>346.9652306584402</v>
+        <v>362.4844716058847</v>
       </c>
       <c r="G34" t="n">
-        <v>180.7082609526723</v>
+        <v>196.2275019001168</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>52.4312334082712</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M34" t="n">
-        <v>782.7871087254983</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.278619601534</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O34" t="n">
-        <v>1515.706748281297</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P34" t="n">
         <v>1718.599492800575</v>
@@ -6889,19 +6891,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U34" t="n">
-        <v>1565.415174541641</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>1565.415174541641</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W34" t="n">
-        <v>1565.415174541641</v>
+        <v>1289.035751821878</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.833283747663</v>
+        <v>1289.035751821878</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.490515437405</v>
+        <v>1062.69298351162</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.91199246082674</v>
+        <v>972.0229152084737</v>
       </c>
       <c r="C35" t="n">
-        <v>36.91199246082674</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082674</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082674</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L35" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M35" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N35" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O35" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P35" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6968,19 +6970,19 @@
         <v>1741.232328914477</v>
       </c>
       <c r="U35" t="n">
-        <v>1482.877419510889</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V35" t="n">
-        <v>1250.360611037842</v>
+        <v>1383.742914040726</v>
       </c>
       <c r="W35" t="n">
-        <v>853.9692613381892</v>
+        <v>1383.742914040726</v>
       </c>
       <c r="X35" t="n">
-        <v>442.2492625059364</v>
+        <v>972.0229152084737</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.91199246082674</v>
+        <v>972.0229152084737</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K36" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L36" t="n">
-        <v>1222.18129514588</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M36" t="n">
-        <v>1306.794406253903</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N36" t="n">
-        <v>1306.794406253903</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O36" t="n">
-        <v>1306.794406253903</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P36" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.1689621665946</v>
+        <v>856.3058865556179</v>
       </c>
       <c r="C37" t="n">
-        <v>203.1689621665946</v>
+        <v>684.3333234345339</v>
       </c>
       <c r="D37" t="n">
-        <v>203.1689621665946</v>
+        <v>521.0165505613046</v>
       </c>
       <c r="E37" t="n">
-        <v>203.1689621665946</v>
+        <v>521.0165505613046</v>
       </c>
       <c r="F37" t="n">
-        <v>203.1689621665946</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
         <v>263.4395936666639</v>
@@ -7108,10 +7110,10 @@
         <v>1386.806220807371</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V37" t="n">
-        <v>870.229311894705</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W37" t="n">
-        <v>595.376908067218</v>
+        <v>1289.035751821878</v>
       </c>
       <c r="X37" t="n">
-        <v>352.8130115130231</v>
+        <v>1046.471855267684</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1689621665946</v>
+        <v>1046.471855267684</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1449.208273341684</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="C38" t="n">
-        <v>1022.307543354984</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="D38" t="n">
-        <v>1022.307543354984</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="E38" t="n">
-        <v>1022.307543354984</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="F38" t="n">
-        <v>597.1833615443841</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="G38" t="n">
-        <v>192.8442991338327</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L38" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M38" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N38" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O38" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P38" t="n">
-        <v>1728.043288159434</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
@@ -7202,22 +7204,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W38" t="n">
-        <v>1449.208273341684</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="X38" t="n">
-        <v>1449.208273341684</v>
+        <v>612.4383781089784</v>
       </c>
       <c r="Y38" t="n">
-        <v>1449.208273341684</v>
+        <v>612.4383781089784</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023296</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K39" t="n">
-        <v>772.8420314050604</v>
+        <v>765.3953884431486</v>
       </c>
       <c r="L39" t="n">
-        <v>772.8420314050604</v>
+        <v>765.3953884431486</v>
       </c>
       <c r="M39" t="n">
-        <v>772.8420314050604</v>
+        <v>765.3953884431486</v>
       </c>
       <c r="N39" t="n">
-        <v>772.8420314050604</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O39" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.3771680137411</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C40" t="n">
-        <v>369.3771680137411</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D40" t="n">
-        <v>369.3771680137411</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E40" t="n">
-        <v>203.1689621665946</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F40" t="n">
-        <v>203.1689621665946</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L40" t="n">
         <v>430.8949765933859</v>
@@ -7354,28 +7356,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T40" t="n">
-        <v>1432.125227786372</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.940779286676</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V40" t="n">
-        <v>870.229311894705</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="W40" t="n">
-        <v>595.376908067218</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="X40" t="n">
-        <v>595.376908067218</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="Y40" t="n">
-        <v>369.3771680137411</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>334.7803709867919</v>
+        <v>617.6399102179007</v>
       </c>
       <c r="C41" t="n">
-        <v>334.7803709867919</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D41" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E41" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F41" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M41" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N41" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O41" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P41" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
         <v>1728.043288159434</v>
@@ -7436,25 +7438,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U41" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V41" t="n">
-        <v>904.4624336817722</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W41" t="n">
-        <v>508.071083982119</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X41" t="n">
-        <v>334.7803709867919</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y41" t="n">
-        <v>334.7803709867919</v>
+        <v>1037.488274509431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="J42" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="K42" t="n">
-        <v>772.8420314050604</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="L42" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="M42" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="N42" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635575</v>
       </c>
       <c r="O42" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P42" t="n">
         <v>1388.813716338606</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.809590976865</v>
+        <v>480.5148980670743</v>
       </c>
       <c r="C43" t="n">
-        <v>197.837027855781</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="D43" t="n">
-        <v>197.837027855781</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="E43" t="n">
-        <v>197.837027855781</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="F43" t="n">
-        <v>197.837027855781</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G43" t="n">
-        <v>197.837027855781</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H43" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P43" t="n">
         <v>1718.599492800575</v>
@@ -7591,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T43" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U43" t="n">
-        <v>1395.280127060776</v>
+        <v>1414.43993547108</v>
       </c>
       <c r="V43" t="n">
-        <v>1113.568659668805</v>
+        <v>1414.43993547108</v>
       </c>
       <c r="W43" t="n">
-        <v>838.7162558413179</v>
+        <v>1139.587531643593</v>
       </c>
       <c r="X43" t="n">
-        <v>596.152359287123</v>
+        <v>897.0236350893979</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.809590976865</v>
+        <v>670.6808667791399</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>866.3752366819779</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
@@ -9410,19 +9412,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>362.2965767485775</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9489,13 +9491,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>191.487466684572</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9562,22 +9564,22 @@
         <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>291.5984102914562</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -9650,10 +9652,10 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>362.2965767485775</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9711,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>101.0427079326426</v>
       </c>
       <c r="N24" t="n">
-        <v>381.2527255747682</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9796,7 +9798,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>498.831168659766</v>
@@ -9890,13 +9892,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>114.0667271187383</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.1383873221887</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>183.3088020988904</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>99.7167686251434</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,7 +10035,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10048,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>227.3229668390748</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764234</v>
       </c>
       <c r="L29" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>480.8559469023526</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10194,22 +10196,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>189.6586051758914</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068835</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10270,10 +10272,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914557</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10361,10 +10363,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P32" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10428,25 +10430,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>99.28895563385618</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425368</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10507,7 +10509,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10516,13 +10518,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>84.64530730648401</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>227.322966839075</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M35" t="n">
-        <v>498.831168659766</v>
+        <v>114.6301304286941</v>
       </c>
       <c r="N35" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>362.1121742943703</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>108.5645695103311</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>464.5283265304018</v>
       </c>
       <c r="Q36" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10756,13 +10758,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>64.10934918660844</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L38" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>112.616039913105</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10911,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>189.6586051758917</v>
       </c>
       <c r="O39" t="n">
-        <v>101.1178171425367</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,10 +10983,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0656113368345</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>361.4046720736148</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3088020988907</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,10 +11153,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11227,10 +11229,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O43" t="n">
-        <v>64.1093491866089</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
@@ -11306,16 +11308,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>114.4784903637083</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11376,10 +11378,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>465.1567191589066</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -11455,25 +11457,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>129.0289299912519</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>123.7958013218027</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -24023,7 +24025,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24035,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.1698679701245</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24218,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>124.2697826103988</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>15.76545034397571</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>94.62226257161683</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>150.3979367949396</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24446,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24506,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>296.0605129651436</v>
+        <v>394.7347407653321</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.04661732731968</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>57.19654208151587</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,13 +24691,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>107.1842564269161</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24743,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>178.6074816807356</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>99.60164079042647</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24847,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.66489278254403</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24932,10 +24934,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>20.39925915110535</v>
+        <v>361.2937521986941</v>
       </c>
     </row>
     <row r="33">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>83.40683403915676</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>112.8421857026148</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>226.6051782377773</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25166,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,19 +25210,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>123.7228803366963</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>96.60323235647625</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.93173177419121</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25400,13 +25402,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>125.4142447354812</v>
       </c>
       <c r="H38" t="n">
-        <v>140.5167111344296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25442,13 +25444,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.3395979742132624</v>
+        <v>186.4767348768437</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>266.7707787141794</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25643,7 +25645,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.0449929785564</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>81.8134033430492</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.53643750589939</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25916,16 +25918,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>251.3974899872694</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26086,10 +26088,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>149.2323884507979</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466879.2523110331</v>
+        <v>60870.09540019948</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466879.2523110332</v>
+        <v>466879.2523110331</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466879.2523110332</v>
+        <v>466879.2523110331</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466879.2523110331</v>
+        <v>466879.252311033</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019948</v>
+        <v>466879.2523110333</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13744.86025165794</v>
+        <v>13744.86025165795</v>
       </c>
       <c r="C2" t="n">
         <v>13744.86025165794</v>
       </c>
       <c r="D2" t="n">
-        <v>13744.86025165795</v>
+        <v>13744.86025165794</v>
       </c>
       <c r="E2" t="n">
         <v>13744.86025165795</v>
@@ -26329,22 +26331,22 @@
         <v>13744.86025165794</v>
       </c>
       <c r="H2" t="n">
-        <v>105244.5587950954</v>
+        <v>13744.86025165794</v>
       </c>
       <c r="I2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="J2" t="n">
         <v>105244.5587950954</v>
       </c>
       <c r="K2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="L2" t="n">
         <v>105244.5587950954</v>
       </c>
       <c r="M2" t="n">
-        <v>105244.5587950954</v>
+        <v>105244.5587950953</v>
       </c>
       <c r="N2" t="n">
         <v>105244.5587950954</v>
@@ -26353,7 +26355,7 @@
         <v>105244.5587950954</v>
       </c>
       <c r="P2" t="n">
-        <v>13744.86025165794</v>
+        <v>105244.5587950954</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>122695.9243396938</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,22 +26435,22 @@
         <v>5890.654393567689</v>
       </c>
       <c r="H4" t="n">
+        <v>5890.654393567689</v>
+      </c>
+      <c r="I4" t="n">
         <v>46301.12075802254</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>46301.12075802255</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>46301.12075802253</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>46301.12075802254</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>46301.12075802255</v>
-      </c>
-      <c r="M4" t="n">
-        <v>46301.12075802254</v>
       </c>
       <c r="N4" t="n">
         <v>46301.12075802253</v>
@@ -26457,7 +26459,7 @@
         <v>46301.12075802254</v>
       </c>
       <c r="P4" t="n">
-        <v>5890.654393567689</v>
+        <v>46301.12075802254</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26528,7 +26530,7 @@
         <v>-25773.39414190974</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090258</v>
+        <v>7854.205858090259</v>
       </c>
       <c r="F6" t="n">
         <v>7854.205858090258</v>
@@ -26537,31 +26539,31 @@
         <v>7854.205858090256</v>
       </c>
       <c r="H6" t="n">
-        <v>-93599.52340644549</v>
+        <v>7854.205858090256</v>
       </c>
       <c r="I6" t="n">
+        <v>-91805.60057284932</v>
+      </c>
+      <c r="J6" t="n">
         <v>30890.32376684451</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>30890.32376684451</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30890.32376684451</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30890.32376684449</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30890.32376684454</v>
+      </c>
+      <c r="O6" t="n">
         <v>30890.32376684453</v>
       </c>
-      <c r="K6" t="n">
-        <v>30890.32376684452</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>30890.32376684453</v>
-      </c>
-      <c r="M6" t="n">
-        <v>30890.32376684455</v>
-      </c>
-      <c r="N6" t="n">
-        <v>30890.32376684453</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30890.32376684451</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7854.205858090256</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,19 +36132,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,22 +36284,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>269.6796503957549</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9096973612265</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>160.7937153846608</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36768,10 +36770,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>293.5345574968697</v>
+        <v>204.9421661810883</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>160.7937153846613</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957545</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37148,25 +37150,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37236,13 +37238,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
-        <v>381.3045564404402</v>
+        <v>63.89640633088362</v>
       </c>
       <c r="O34" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>204.9421661810885</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
         <v>128.2829598391535</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603342</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="N35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,13 +37478,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>41.61016168818399</v>
       </c>
       <c r="P37" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>168.31557696235</v>
       </c>
       <c r="O39" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>169.1468514411333</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>324.0137127175907</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37947,10 +37949,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O43" t="n">
-        <v>41.61016168818445</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38026,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.409367226467</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19866.69256603841</v>
+        <v>-29259.88490412845</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116413</v>
+        <v>24728256.75116414</v>
       </c>
     </row>
     <row r="8">
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -2377,16 +2377,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>121.8345406801367</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.5184470006828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2532,16 +2532,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>3.320706293774158</v>
       </c>
       <c r="X25" t="n">
-        <v>89.74032079371332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>333.0665945010262</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>12.86805807859808</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>105.2062201625535</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>313.6886835655776</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>141.3535193811975</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2845,13 +2845,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>80.51100496435802</v>
+        <v>80.51100496435825</v>
       </c>
       <c r="T30" t="n">
         <v>140.4611363452985</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.66266823451852</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>42.88132997579847</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>106.8056168372341</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>39.99014514596448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>153.7020492654184</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3207,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>15.36404853797002</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>196.0265444490556</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>372.0915539714907</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>93.11323406457201</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H36" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>73.53992412670893</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>31.79468515948118</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>274.8814270509646</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>215.162716545414</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>90.90586913785523</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.60260575031165</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>155.8609439726535</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>206.164225089145</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>211.8461665087994</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>11.69857563970791</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>274.8814270509649</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>141.0299462153872</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>80.51100496435825</v>
       </c>
       <c r="T45" t="n">
         <v>140.4611363452985</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>90.90586913785502</v>
+        <v>98.11184236531386</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C23" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D23" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E23" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F23" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G23" t="n">
-        <v>71.80886371735552</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H23" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
         <v>399.5154512777223</v>
@@ -5995,10 +5995,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L23" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M23" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N23" t="n">
         <v>1271.957808655251</v>
@@ -6022,19 +6022,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U23" t="n">
-        <v>1261.951848555522</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V23" t="n">
-        <v>1261.951848555522</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W23" t="n">
-        <v>865.5604988558694</v>
+        <v>781.3972410755734</v>
       </c>
       <c r="X23" t="n">
-        <v>865.5604988558694</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="Y23" t="n">
-        <v>476.1479261279069</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J24" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K24" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>772.8420314050604</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M24" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N24" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O24" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P24" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.9145678863947</v>
+        <v>624.31116655892</v>
       </c>
       <c r="C25" t="n">
-        <v>612.9420047653107</v>
+        <v>452.338603437836</v>
       </c>
       <c r="D25" t="n">
-        <v>612.9420047653107</v>
+        <v>452.338603437836</v>
       </c>
       <c r="E25" t="n">
-        <v>446.7337989181643</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F25" t="n">
-        <v>446.7337989181643</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G25" t="n">
         <v>280.4768292123964</v>
@@ -6144,28 +6144,28 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6177,22 +6177,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.125227786371</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U25" t="n">
-        <v>1432.125227786371</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V25" t="n">
-        <v>1150.4137603944</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W25" t="n">
-        <v>875.5613565669132</v>
+        <v>866.8750631131149</v>
       </c>
       <c r="X25" t="n">
-        <v>784.9145678863947</v>
+        <v>624.31116655892</v>
       </c>
       <c r="Y25" t="n">
-        <v>784.9145678863947</v>
+        <v>624.31116655892</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>903.0486561146067</v>
+        <v>833.3639490643454</v>
       </c>
       <c r="C26" t="n">
-        <v>476.1479261279069</v>
+        <v>833.3639490643454</v>
       </c>
       <c r="D26" t="n">
-        <v>476.1479261279069</v>
+        <v>833.3639490643454</v>
       </c>
       <c r="E26" t="n">
-        <v>476.1479261279069</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F26" t="n">
-        <v>476.1479261279069</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G26" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H26" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M26" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N26" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O26" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P26" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1741.232328914477</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V26" t="n">
-        <v>1741.232328914477</v>
+        <v>1229.755298763999</v>
       </c>
       <c r="W26" t="n">
-        <v>1741.232328914477</v>
+        <v>833.3639490643454</v>
       </c>
       <c r="X26" t="n">
-        <v>1728.234290451247</v>
+        <v>833.3639490643454</v>
       </c>
       <c r="Y26" t="n">
-        <v>1322.897020406137</v>
+        <v>833.3639490643454</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L27" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="M27" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N27" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O27" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P27" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.2109140204152</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C28" t="n">
-        <v>612.9420047653107</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D28" t="n">
-        <v>612.9420047653107</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E28" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F28" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N28" t="n">
-        <v>1160.278619601534</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O28" t="n">
-        <v>1515.706748281297</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6411,25 +6411,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.125227786371</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.940779286676</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V28" t="n">
-        <v>1151.940779286676</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W28" t="n">
-        <v>1151.940779286676</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X28" t="n">
-        <v>909.3768827324808</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.3768827324808</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1482.877419510889</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="C29" t="n">
-        <v>1055.976689524189</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="D29" t="n">
-        <v>1055.976689524189</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="E29" t="n">
-        <v>1055.976689524189</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="F29" t="n">
-        <v>739.1194333973433</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="G29" t="n">
         <v>334.7803709867919</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>815.1719019525202</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L29" t="n">
-        <v>815.1719019525202</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M29" t="n">
-        <v>815.1719019525202</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N29" t="n">
-        <v>815.1719019525202</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O29" t="n">
-        <v>815.1719019525202</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P29" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q29" t="n">
         <v>1728.043288159434</v>
@@ -6493,22 +6493,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U29" t="n">
-        <v>1482.877419510889</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V29" t="n">
-        <v>1482.877419510889</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W29" t="n">
-        <v>1482.877419510889</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X29" t="n">
-        <v>1482.877419510889</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1482.877419510889</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J30" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L30" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M30" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N30" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O30" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P30" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.91199246082673</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C31" t="n">
-        <v>36.91199246082673</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D31" t="n">
-        <v>36.91199246082673</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E31" t="n">
-        <v>36.91199246082673</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F31" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>303.8948463526237</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
         <v>1718.599492800575</v>
@@ -6645,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.125227786371</v>
+        <v>1585.111487524616</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.940779286676</v>
+        <v>1585.111487524616</v>
       </c>
       <c r="V31" t="n">
-        <v>870.2293118947046</v>
+        <v>1585.111487524616</v>
       </c>
       <c r="W31" t="n">
-        <v>595.3769080672175</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="X31" t="n">
-        <v>352.8130115130226</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4702432027646</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>792.9698630583205</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="C32" t="n">
-        <v>792.9698630583205</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D32" t="n">
         <v>369.6772422433207</v>
@@ -6694,31 +6694,31 @@
         <v>369.6772422433207</v>
       </c>
       <c r="H32" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K32" t="n">
-        <v>399.5154512777223</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="L32" t="n">
-        <v>399.5154512777223</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="M32" t="n">
-        <v>399.5154512777223</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="N32" t="n">
-        <v>399.5154512777223</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="O32" t="n">
-        <v>815.1719019525202</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P32" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6727,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1587.244713637749</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>1229.755298763998</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W32" t="n">
-        <v>833.3639490643452</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="X32" t="n">
-        <v>833.3639490643452</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="Y32" t="n">
-        <v>792.9698630583205</v>
+        <v>796.5779722300206</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J33" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K33" t="n">
         <v>772.8420314050604</v>
@@ -6794,13 +6794,13 @@
         <v>772.8420314050604</v>
       </c>
       <c r="O33" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P33" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.5270147995548</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="C34" t="n">
-        <v>700.5544516784707</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D34" t="n">
-        <v>700.5544516784707</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E34" t="n">
-        <v>534.3462458313243</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F34" t="n">
-        <v>362.4844716058847</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G34" t="n">
-        <v>196.2275019001168</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H34" t="n">
-        <v>52.4312334082712</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>618.1289149610848</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M34" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N34" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P34" t="n">
         <v>1718.599492800575</v>
@@ -6882,28 +6882,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V34" t="n">
-        <v>1563.888155649365</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W34" t="n">
-        <v>1289.035751821878</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X34" t="n">
-        <v>1289.035751821878</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y34" t="n">
-        <v>1062.69298351162</v>
+        <v>1103.375147081574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>972.0229152084737</v>
+        <v>1114.969487914001</v>
       </c>
       <c r="C35" t="n">
-        <v>774.0163046538721</v>
+        <v>1114.969487914001</v>
       </c>
       <c r="D35" t="n">
-        <v>774.0163046538721</v>
+        <v>1114.969487914001</v>
       </c>
       <c r="E35" t="n">
-        <v>774.0163046538721</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F35" t="n">
-        <v>774.0163046538721</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G35" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L35" t="n">
         <v>856.3013579804531</v>
       </c>
       <c r="M35" t="n">
-        <v>932.7282368344228</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N35" t="n">
-        <v>932.7282368344228</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O35" t="n">
-        <v>932.7282368344228</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P35" t="n">
-        <v>1389.514143537154</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="Q35" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6967,22 +6967,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U35" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V35" t="n">
-        <v>1383.742914040726</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W35" t="n">
-        <v>1383.742914040726</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X35" t="n">
-        <v>972.0229152084737</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y35" t="n">
-        <v>972.0229152084737</v>
+        <v>1114.969487914001</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J36" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L36" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M36" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N36" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O36" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P36" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>856.3058865556179</v>
+        <v>443.7936020856257</v>
       </c>
       <c r="C37" t="n">
-        <v>684.3333234345339</v>
+        <v>443.7936020856257</v>
       </c>
       <c r="D37" t="n">
-        <v>521.0165505613046</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="E37" t="n">
-        <v>521.0165505613046</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F37" t="n">
-        <v>446.7337989181643</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G37" t="n">
         <v>280.4768292123964</v>
@@ -7092,25 +7092,25 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K37" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L37" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
         <v>1718.599492800575</v>
@@ -7119,28 +7119,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1766.445166133075</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1523.105818358974</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1242.921369859279</v>
       </c>
       <c r="V37" t="n">
-        <v>1563.888155649365</v>
+        <v>961.2099024673075</v>
       </c>
       <c r="W37" t="n">
-        <v>1289.035751821878</v>
+        <v>686.3574986398206</v>
       </c>
       <c r="X37" t="n">
-        <v>1046.471855267684</v>
+        <v>443.7936020856257</v>
       </c>
       <c r="Y37" t="n">
-        <v>1046.471855267684</v>
+        <v>443.7936020856257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>612.4383781089784</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C38" t="n">
-        <v>612.4383781089784</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D38" t="n">
-        <v>612.4383781089784</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E38" t="n">
-        <v>612.4383781089784</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F38" t="n">
-        <v>612.4383781089784</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G38" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N38" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O38" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P38" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q38" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1624.67405208597</v>
+        <v>1523.896251595877</v>
       </c>
       <c r="U38" t="n">
-        <v>1366.319142682382</v>
+        <v>1265.541342192289</v>
       </c>
       <c r="V38" t="n">
-        <v>1008.829727808632</v>
+        <v>1265.541342192289</v>
       </c>
       <c r="W38" t="n">
-        <v>612.4383781089784</v>
+        <v>869.1499924926363</v>
       </c>
       <c r="X38" t="n">
-        <v>612.4383781089784</v>
+        <v>869.1499924926363</v>
       </c>
       <c r="Y38" t="n">
-        <v>612.4383781089784</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082672</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>765.3953884431486</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>765.3953884431486</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M39" t="n">
-        <v>765.3953884431486</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N39" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O39" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7329,28 +7329,28 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7365,16 +7365,16 @@
         <v>1628.425962247645</v>
       </c>
       <c r="U40" t="n">
-        <v>1348.241513747949</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.241513747949</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.241513747949</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="X40" t="n">
-        <v>1348.241513747949</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y40" t="n">
         <v>1310.259083697129</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>617.6399102179007</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C41" t="n">
-        <v>460.2046132758265</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>399.5154512777223</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N41" t="n">
-        <v>399.5154512777223</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="O41" t="n">
-        <v>815.1719019525202</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P41" t="n">
-        <v>1271.957808655251</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7441,22 +7441,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W41" t="n">
-        <v>1449.208273341683</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="X41" t="n">
-        <v>1037.488274509431</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y41" t="n">
-        <v>1037.488274509431</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082672</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082672</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
-        <v>36.91199246082672</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L42" t="n">
-        <v>493.6978991635575</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M42" t="n">
-        <v>493.6978991635575</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N42" t="n">
-        <v>493.6978991635575</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O42" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>480.5148980670743</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C43" t="n">
-        <v>308.5423349459903</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D43" t="n">
-        <v>308.5423349459903</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E43" t="n">
-        <v>308.5423349459903</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F43" t="n">
-        <v>136.6805607205508</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G43" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H43" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
         <v>94.40332068498475</v>
@@ -7575,16 +7575,16 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>675.6202431852428</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.806038155494</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N43" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P43" t="n">
         <v>1718.599492800575</v>
@@ -7593,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1628.425962247645</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U43" t="n">
-        <v>1414.43993547108</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.43993547108</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="W43" t="n">
-        <v>1139.587531643593</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="X43" t="n">
-        <v>897.0236350893979</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="Y43" t="n">
-        <v>670.6808667791399</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="C44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="D44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="E44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="F44" t="n">
-        <v>441.2510548713781</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M44" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N44" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O44" t="n">
-        <v>932.7282368344228</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
         <v>1845.599623041337</v>
@@ -7687,13 +7687,13 @@
         <v>1008.829727808632</v>
       </c>
       <c r="W44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="X44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="Y44" t="n">
-        <v>866.3752366819779</v>
+        <v>612.4383781089787</v>
       </c>
     </row>
     <row r="45">
@@ -7709,46 +7709,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F45" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I45" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J45" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L45" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M45" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N45" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
         <v>1845.599623041337</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="C46" t="n">
         <v>948.1205518639796</v>
@@ -7803,55 +7803,55 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>1742.234349487134</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>1628.425962247645</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U46" t="n">
-        <v>1628.425962247645</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V46" t="n">
-        <v>1628.425962247645</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="W46" t="n">
-        <v>1628.425962247645</v>
+        <v>1047.223422940054</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>948.1205518639796</v>
       </c>
     </row>
   </sheetData>
@@ -9643,7 +9643,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>458.1670431142371</v>
+        <v>458.1670431142372</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -9722,19 +9722,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M24" t="n">
-        <v>101.0427079326426</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
         <v>484.1469440493127</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,16 +9807,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142372</v>
       </c>
       <c r="M26" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P27" t="n">
-        <v>99.7167686251434</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10047,10 +10047,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P28" t="n">
-        <v>227.3229668390748</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10114,13 +10114,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>455.6196014764234</v>
+        <v>454.9120992556681</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
@@ -10129,10 +10129,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>183.9656051068835</v>
+        <v>101.1178171425366</v>
       </c>
       <c r="P30" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q30" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>291.5984102914557</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>359.7783135124</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10360,16 +10360,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O32" t="n">
-        <v>457.2459600376382</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P32" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10442,10 +10442,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>101.1178171425368</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
         <v>484.1469440493127</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>400.5044494188121</v>
       </c>
       <c r="N34" t="n">
-        <v>84.64530730648401</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10588,13 +10588,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>114.6301304286941</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
@@ -10603,13 +10603,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>111.5240152033034</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425366</v>
       </c>
       <c r="P36" t="n">
-        <v>464.5283265304018</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10752,13 +10752,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>64.10934918660844</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10825,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
@@ -10837,16 +10837,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163582</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
-        <v>112.616039913105</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10907,19 +10907,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>189.6586051758917</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651628</v>
+        <v>182.5645565894898</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>191.0656113368345</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>457.2459600376382</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>111.5240152033034</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O42" t="n">
-        <v>465.9293750477955</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651628</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,13 +11223,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>26.57325859521331</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
@@ -11308,19 +11308,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>114.4784903637083</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>465.1567191589066</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345439</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11463,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>129.0289299912519</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>270.5928955225198</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.76545034397571</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>268.7831734954379</v>
       </c>
       <c r="X25" t="n">
-        <v>150.3979367949396</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>88.65057595259481</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>394.7347407653321</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.04661732731968</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,10 +24691,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>107.1842564269161</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>258.9421524052483</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.60164079042647</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>198.0246243205605</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>285.6218193654225</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.2937521986941</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>16.55078822445478</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.40683403915676</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>226.6051782377773</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>49.62561648213028</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>96.60323235647625</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>136.6390118465753</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>125.4142447354812</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.553598700399164</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25605,7 +25605,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25614,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>149.2323884507977</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.4767348768437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>266.7707787141794</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25645,7 +25645,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25681,10 +25681,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>201.4385737547852</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.53643750589939</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>212.3807649874475</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>125.414244735481</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>251.3974899872694</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>149.2323884507979</v>
+        <v>142.0264152233391</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466879.2523110331</v>
+        <v>466879.2523110332</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466879.2523110331</v>
+        <v>466879.2523110332</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466879.2523110331</v>
+        <v>466879.252311033</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466879.252311033</v>
+        <v>466879.2523110331</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466879.2523110332</v>
+        <v>466879.2523110331</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13744.86025165795</v>
+        <v>13744.86025165794</v>
       </c>
       <c r="C2" t="n">
         <v>13744.86025165794</v>
@@ -26322,10 +26322,10 @@
         <v>13744.86025165794</v>
       </c>
       <c r="E2" t="n">
-        <v>13744.86025165795</v>
+        <v>13744.86025165794</v>
       </c>
       <c r="F2" t="n">
-        <v>13744.86025165795</v>
+        <v>13744.86025165794</v>
       </c>
       <c r="G2" t="n">
         <v>13744.86025165794</v>
@@ -26334,19 +26334,19 @@
         <v>13744.86025165794</v>
       </c>
       <c r="I2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="J2" t="n">
         <v>105244.5587950954</v>
       </c>
       <c r="K2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="L2" t="n">
         <v>105244.5587950954</v>
       </c>
       <c r="M2" t="n">
-        <v>105244.5587950953</v>
+        <v>105244.5587950954</v>
       </c>
       <c r="N2" t="n">
         <v>105244.5587950954</v>
@@ -26438,10 +26438,10 @@
         <v>5890.654393567689</v>
       </c>
       <c r="I4" t="n">
-        <v>46301.12075802254</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="J4" t="n">
-        <v>46301.12075802255</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="K4" t="n">
         <v>46301.12075802253</v>
@@ -26450,13 +26450,13 @@
         <v>46301.12075802254</v>
       </c>
       <c r="M4" t="n">
-        <v>46301.12075802255</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="N4" t="n">
         <v>46301.12075802253</v>
       </c>
       <c r="O4" t="n">
-        <v>46301.12075802254</v>
+        <v>46301.12075802253</v>
       </c>
       <c r="P4" t="n">
         <v>46301.12075802254</v>
@@ -26490,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871152</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090259</v>
+        <v>6496.276761288476</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090258</v>
+        <v>6496.276761288476</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090256</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="H6" t="n">
-        <v>7854.205858090256</v>
+        <v>6496.276761288476</v>
       </c>
       <c r="I6" t="n">
-        <v>-91805.60057284932</v>
+        <v>-92509.96039434081</v>
       </c>
       <c r="J6" t="n">
-        <v>30890.32376684451</v>
+        <v>30185.963945353</v>
       </c>
       <c r="K6" t="n">
-        <v>30890.32376684451</v>
+        <v>30185.96394535303</v>
       </c>
       <c r="L6" t="n">
-        <v>30890.32376684451</v>
+        <v>30185.963945353</v>
       </c>
       <c r="M6" t="n">
-        <v>30890.32376684449</v>
+        <v>30185.96394535302</v>
       </c>
       <c r="N6" t="n">
-        <v>30890.32376684454</v>
+        <v>30185.96394535302</v>
       </c>
       <c r="O6" t="n">
-        <v>30890.32376684453</v>
+        <v>30185.96394535303</v>
       </c>
       <c r="P6" t="n">
-        <v>30890.32376684453</v>
+        <v>30185.96394535301</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>419.8550006816141</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M24" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36527,16 +36527,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P27" t="n">
-        <v>77.94592742031473</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36767,10 +36767,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P28" t="n">
-        <v>204.9421661810883</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>128.2829598391535</v>
@@ -36834,13 +36834,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>419.8550006816141</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36849,10 +36849,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36913,7 +36913,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>160.7937153846613</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="P30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
-        <v>269.6796503957545</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,16 +37080,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O32" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P32" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37150,7 +37150,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>77.94592742031462</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>395.137166636617</v>
+        <v>377.9290095273263</v>
       </c>
       <c r="N34" t="n">
-        <v>63.89640633088362</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O34" t="n">
         <v>359.0183117977405</v>
@@ -37308,13 +37308,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>77.19886752926232</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="P36" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37472,13 +37472,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>41.61016168818399</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
         <v>293.5345574968697</v>
@@ -37545,7 +37545,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.49136530850697</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>168.31557696235</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>169.1468514411333</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O42" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,13 +37943,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>5.824357619612921</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>77.19886752926232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
@@ -38183,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
@@ -38192,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.409367226467</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
